--- a/beheer/Cellensplitsenobjectentabellen.xlsx
+++ b/beheer/Cellensplitsenobjectentabellen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stichtingcrow-my.sharepoint.com/personal/elisabeth_devries_crow_nl/Documents/Documents/GitHub/NLCS/beheer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7957703F-F01A-4393-8F7A-6E39E4E2D583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{7957703F-F01A-4393-8F7A-6E39E4E2D583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC74C067-0F16-4D50-B97C-B7AAE8E4EACA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1950" windowWidth="38700" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51720" yWindow="-3645" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>OMSCHRIJVING</t>
   </si>
@@ -189,15 +189,6 @@
   </si>
   <si>
     <t>KIND_VAN_URI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nu splitsen op scheidingsteken |  </t>
-  </si>
-  <si>
-    <t>Formule kolommen  weggooien na gebruik</t>
-  </si>
-  <si>
-    <t>nu kopieren als waardes, dan splitsen tekst naar kolommen, scheidingsteken @ voor bewerkingen</t>
   </si>
   <si>
     <t>vrijlaten weggooien na bewerking</t>
@@ -210,7 +201,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,26 +209,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -264,11 +242,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -549,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BO3"/>
+  <dimension ref="A1:BG3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="BB10" sqref="BB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,7 +550,7 @@
     <col min="53" max="53" width="32.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -751,45 +728,22 @@
       <c r="BG1" t="s">
         <v>50</v>
       </c>
-      <c r="BH1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>52</v>
-      </c>
-      <c r="BI1" s="3"/>
-      <c r="BJ1" s="3"/>
-      <c r="BK1" s="3"/>
-      <c r="BL1" s="3"/>
-      <c r="BM1" s="3"/>
-      <c r="BN1" s="3"/>
-      <c r="BO1" s="3"/>
-    </row>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>55</v>
       </c>
       <c r="Y2" t="str">
         <f>B2&amp;C2&amp;D2&amp;E2&amp;F2&amp;G2&amp;H2&amp;I2&amp;J2&amp;K2&amp;L2&amp;M2&amp;N2&amp;O2&amp;P2&amp;Q2&amp;R2&amp;S2&amp;T2</f>
         <v/>
       </c>
-      <c r="BH2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(A2, "_", "|"), "-", "@")</f>
-        <v>OBJECT spatie|SUBOBJECT01|SUBOBJECT02|SUBOBJECT03|SUBOBJECT04|SUBOBJECT05@BEWERKIN</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>53</v>
-      </c>
     </row>
-    <row r="3" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="BI3" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="BH1:BO1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>